--- a/biology/Médecine/Auguste_Voisin_(médecin)/Auguste_Voisin_(médecin).xlsx
+++ b/biology/Médecine/Auguste_Voisin_(médecin)/Auguste_Voisin_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Voisin_(m%C3%A9decin)</t>
+          <t>Auguste_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Félix Voisin, né à Vanves le 25 mai 1829 à et mort le 22 juin 1898 à Paris, est un médecin aliéniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Voisin_(m%C3%A9decin)</t>
+          <t>Auguste_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'Auguste Jacques Voisin (huissier royal)[1], frère de Félix Voisin (préfet de police de Paris) et cousin de Jules Voisin (médecin spécialiste des maladies mentales et nerveuses), Auguste Voisin est né dans la maison de santé fondée par son oncle Félix Voisin (phrénologiste) et par Jean-Pierre Falret[2].
-Interne (1853), il passe sa thèse de doctorat en 1858 et épouse la fille de l'éditeur Baillière, Marie-Pauline. Devenu chef de clinique de Jean-Baptiste Bouillaud, il entre le 1er août 1865 à Bicêtre pour remplacer Louis Delasiauve. Le 15 mars 1867, il succède à Jean-Pierre Falret à la Salpêtrière, où il reste jusqu'à son décès[3].
-Voisin étudie l'hypnose et la suggestion et préside en 1889 le 1er Congrès international d'hypnotisme. Il est également  membre puis vice-président de la Société d'hypnologie et de psychologie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Auguste Jacques Voisin (huissier royal), frère de Félix Voisin (préfet de police de Paris) et cousin de Jules Voisin (médecin spécialiste des maladies mentales et nerveuses), Auguste Voisin est né dans la maison de santé fondée par son oncle Félix Voisin (phrénologiste) et par Jean-Pierre Falret.
+Interne (1853), il passe sa thèse de doctorat en 1858 et épouse la fille de l'éditeur Baillière, Marie-Pauline. Devenu chef de clinique de Jean-Baptiste Bouillaud, il entre le 1er août 1865 à Bicêtre pour remplacer Louis Delasiauve. Le 15 mars 1867, il succède à Jean-Pierre Falret à la Salpêtrière, où il reste jusqu'à son décès.
+Voisin étudie l'hypnose et la suggestion et préside en 1889 le 1er Congrès international d'hypnotisme. Il est également  membre puis vice-président de la Société d'hypnologie et de psychologie.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Voisin_(m%C3%A9decin)</t>
+          <t>Auguste_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On lui doit de nombreuses études[4] dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On lui doit de nombreuses études dont :
 1866 : Études sur le curare, comprenant des recherches et expériences sur les animaux, la dosologie, ... suivies de considérations pratiques et médico-légales
 1866 : Recherches cliniques sur le bromure de potassium et sur son emploi dans le traitement de l'épilepsie
 1870 : Contribution à la thérapeutique de l'épilepsie par les préparations de cuivre et de zinc
